--- a/maoyanProject/files/cinema_tai.xlsx
+++ b/maoyanProject/files/cinema_tai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laysuda/Desktop/git/maoyanProject/maoyanProject/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C38AB5-EC34-C649-AF40-666EDB7ABB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632313FA-2D30-5045-BBD3-C653852D7AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="260">
   <si>
     <t>city_id</t>
   </si>
@@ -37,6 +37,12 @@
     <t>cinema_url</t>
   </si>
   <si>
+    <t>pager_index</t>
+  </si>
+  <si>
+    <t>pager_item_index</t>
+  </si>
+  <si>
     <t>北京</t>
   </si>
   <si>
@@ -611,6 +617,189 @@
   </si>
   <si>
     <t>https://www.maoyan.com/cinema/25984?poi=187558607</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>万达影城（南海万达广场IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：南海区桂澜北路28号南海万达广场4F</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/10027?poi=6780142</t>
+  </si>
+  <si>
+    <t>万达影城（顺德悦然广场IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：顺德区北滘镇诚德路1号美的悦然广场3层</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/36046?poi=725267605</t>
+  </si>
+  <si>
+    <t>万达影城（三水万达广场IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：三水区南丰大道13号三水万达广场娱乐楼4楼</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/16455?poi=113540637</t>
+  </si>
+  <si>
+    <t>寰映影城（禅城DNA广场PRIME店）</t>
+  </si>
+  <si>
+    <t>地址：禅城区石湾镇街道魁奇一路9号新DNA广场第3层318A</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/26745?poi=191354775</t>
+  </si>
+  <si>
+    <t>万达影城（顺德万达广场店）</t>
+  </si>
+  <si>
+    <t>地址：顺德区南霞新路9号万达广场4楼</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/37379?poi=773661628</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>万达影城（仙林万达茂IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：栖霞区西岗街道仙林大道与守敬路交汇处南京万达茂4层</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/25332?poi=175277888</t>
+  </si>
+  <si>
+    <t>万达影城（新街口杜比影院店）</t>
+  </si>
+  <si>
+    <t>地址：秦淮区洪武路88号新街口印象汇广场4层（近淮海路）</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/1182?poi=83947</t>
+  </si>
+  <si>
+    <t>万达影城（建邺万达广场IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：建邺区江东中路98号建邺万达广场娱乐楼4楼（近水西门大街）</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/1179?poi=723418</t>
+  </si>
+  <si>
+    <t>万达影城（江宁万达广场IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：江宁区竹山路68号万达广场5楼</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/8199?poi=4973819</t>
+  </si>
+  <si>
+    <t>万达影城（江宁太阳城杜比影院店）</t>
+  </si>
+  <si>
+    <t>地址：江宁区百家湖商圈双龙大道1539号21世纪太阳城购物中心5楼</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/16297?poi=111820107</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>万达影城（鄞州万达广场IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：鄞州区四明中路999号万达商业广场金座三楼（近格兰云天小区）</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/1142?poi=1548172</t>
+  </si>
+  <si>
+    <t>万达影城（余姚万达广场IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：余姚市兰江街道四明西路855号万达广场F4层</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/7758?poi=3318720</t>
+  </si>
+  <si>
+    <t>万达影城（奉化万达广场IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：奉化区岳林街道中山东路299号万达广场4A幢4楼</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/25311?poi=174856787</t>
+  </si>
+  <si>
+    <t>万达影城（象山万达广场PRIME店）</t>
+  </si>
+  <si>
+    <t>地址：象山县丹西街道丹南路266号万达广场3F</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/36228?poi=1544813870</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>万达影城（梅溪湖步步高IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：岳麓区枫林三路1099号步步高梅溪新天地购物中心D区L3楼</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/15887?poi=91871213</t>
+  </si>
+  <si>
+    <t>万达影城（长沙解放路激光IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：天心区解放西路197号印象汇4楼万达影城（沃尔玛楼上）</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/1570?poi=53790</t>
+  </si>
+  <si>
+    <t>万达影城（长沙开福万达广场IMAX店）</t>
+  </si>
+  <si>
+    <t>地址：开福区湘江中路589号万达广场5层</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/7449?poi=2558758</t>
+  </si>
+  <si>
+    <t>万达影城（长沙华创广场CINITY店）</t>
+  </si>
+  <si>
+    <t>地址：开福区芙蓉中路一段113号华创国际广场3楼</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/16352?poi=114757076</t>
+  </si>
+  <si>
+    <t>万达影城（长沙中海环宇城中国巨幕店）</t>
+  </si>
+  <si>
+    <t>地址：天心区中意二路111号中海环宇城4楼（中信广场）</t>
+  </si>
+  <si>
+    <t>https://www.maoyan.com/cinema/16783?poi=85291368</t>
   </si>
 </sst>
 </file>
@@ -982,15 +1171,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,1025 +1196,1851 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>83</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>86</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>106</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>134</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>163</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>170</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>173</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>176</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>179</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>186</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>192</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>195</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" t="s">
+        <v>221</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" t="s">
+        <v>226</v>
+      </c>
+      <c r="E70" t="s">
+        <v>227</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>55</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" t="s">
+        <v>230</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>51</v>
+      </c>
+      <c r="B73" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>51</v>
+      </c>
+      <c r="B74" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>51</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" t="s">
+        <v>239</v>
+      </c>
+      <c r="E75" t="s">
+        <v>240</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>51</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78" t="s">
+        <v>250</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>70</v>
+      </c>
+      <c r="B79" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" t="s">
+        <v>253</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" t="s">
+        <v>255</v>
+      </c>
+      <c r="E80" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" t="s">
+        <v>258</v>
+      </c>
+      <c r="E81" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
